--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="23.470625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="23.380625" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.390625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="19.110625" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="19.110625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="24.630625" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="24.630625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="25.750625" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="25.750625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="24.148242" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="23.470625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="23.580625" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1325,7 +1325,7 @@
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="11.42125" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultColWidth="10.710625" defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="5" width="10.710625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1181,8 +1181,8 @@
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s"/>
-      <x:c r="G1" s="0" t="s"/>
+      <x:c r="E1" s="0"/>
+      <x:c r="G1" s="0"/>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
@@ -1193,8 +1193,8 @@
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="G3" s="0" t="s"/>
+      <x:c r="E3" s="0"/>
+      <x:c r="G3" s="0"/>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
@@ -1202,13 +1202,13 @@
       </x:c>
     </x:row>
     <x:row r="7" spans="1:11">
-      <x:c r="E7" s="0" t="s"/>
+      <x:c r="E7" s="0"/>
     </x:row>
     <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0" t="s"/>
-      <x:c r="D9" s="0" t="s"/>
-      <x:c r="E9" s="0" t="s"/>
-      <x:c r="F9" s="0" t="s"/>
+      <x:c r="A9" s="0"/>
+      <x:c r="D9" s="0"/>
+      <x:c r="E9" s="0"/>
+      <x:c r="F9" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1235,10 +1235,10 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
     <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s"/>
+      <x:c r="A4" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1265,7 +1265,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1298,13 +1298,13 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="s"/>
+      <x:c r="A3" s="0"/>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="s"/>
+      <x:c r="A4" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1331,7 +1331,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1358,7 +1358,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1385,16 +1385,16 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="0"/>
     </x:row>
     <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
+      <x:c r="A3" s="0"/>
+      <x:c r="D3" s="0"/>
+      <x:c r="E3" s="0"/>
+      <x:c r="F3" s="0"/>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="s"/>
+      <x:c r="A8" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1421,7 +1421,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1448,7 +1448,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1475,13 +1475,13 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="0"/>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="s"/>
+      <x:c r="A2" s="0"/>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="s"/>
+      <x:c r="A3" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1508,7 +1508,7 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0" t="s"/>
+      <x:c r="A1" s="0"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Hidden</x:t>
   </x:si>
@@ -1288,7 +1288,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="23.580625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="23.853482" style="0" customWidth="1"/>
     <x:col min="2" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1181,8 +1181,6 @@
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E1" s="0"/>
-      <x:c r="G1" s="0"/>
     </x:row>
     <x:row r="2" spans="1:11">
       <x:c r="A2" s="0" t="s">
@@ -1193,23 +1191,14 @@
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E3" s="0"/>
-      <x:c r="G3" s="0"/>
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:11">
-      <x:c r="E7" s="0"/>
-    </x:row>
-    <x:row r="9" spans="1:11">
-      <x:c r="A9" s="0"/>
-      <x:c r="D9" s="0"/>
-      <x:c r="E9" s="0"/>
-      <x:c r="F9" s="0"/>
-    </x:row>
+    <x:row r="7" spans="1:11"/>
+    <x:row r="9" spans="1:11"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1234,12 +1223,8 @@
     <x:col min="1" max="5" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0"/>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0"/>
-    </x:row>
+    <x:row r="2" spans="1:5"/>
+    <x:row r="4" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1264,9 +1249,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1297,15 +1280,9 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0"/>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0"/>
-    </x:row>
-    <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0"/>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
+    <x:row r="3" spans="1:4"/>
+    <x:row r="4" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1330,9 +1307,7 @@
     <x:col min="1" max="5" width="10.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1357,9 +1332,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0"/>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1384,18 +1357,9 @@
     <x:col min="1" max="9" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
-      <x:c r="A1" s="0"/>
-    </x:row>
-    <x:row r="3" spans="1:9">
-      <x:c r="A3" s="0"/>
-      <x:c r="D3" s="0"/>
-      <x:c r="E3" s="0"/>
-      <x:c r="F3" s="0"/>
-    </x:row>
-    <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:9"/>
+    <x:row r="3" spans="1:9"/>
+    <x:row r="8" spans="1:9"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1420,9 +1384,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0"/>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1447,9 +1409,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0"/>
-    </x:row>
+    <x:row r="2" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1474,15 +1434,9 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0"/>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0"/>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:4"/>
+    <x:row r="2" spans="1:4"/>
+    <x:row r="3" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1507,9 +1461,7 @@
     <x:col min="1" max="4" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="0"/>
-    </x:row>
+    <x:row r="1" spans="1:4"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -1164,7 +1164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1210,7 +1210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1236,7 +1236,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1294,7 +1294,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1344,7 +1344,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1371,7 +1371,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1396,7 +1396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1421,7 +1421,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -1448,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Comments/AddingComments.xlsx
@@ -6,17 +6,17 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Comments" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Visibility" sheetId="3" r:id="rId3"/>
-    <x:sheet name="Position" sheetId="4" r:id="rId4"/>
-    <x:sheet name="Signatures" sheetId="5" r:id="rId5"/>
-    <x:sheet name="Alignment" sheetId="6" r:id="rId6"/>
-    <x:sheet name="Colors and Lines" sheetId="7" r:id="rId7"/>
-    <x:sheet name="Margins" sheetId="8" r:id="rId8"/>
-    <x:sheet name="Properties" sheetId="9" r:id="rId9"/>
-    <x:sheet name="Protection" sheetId="10" r:id="rId10"/>
-    <x:sheet name="Size" sheetId="11" r:id="rId11"/>
-    <x:sheet name="Web" sheetId="12" r:id="rId12"/>
+    <x:sheet name="Comments" sheetId="1" r:id="rId2"/>
+    <x:sheet name="Visibility" sheetId="2" r:id="rId3"/>
+    <x:sheet name="Position" sheetId="3" r:id="rId4"/>
+    <x:sheet name="Signatures" sheetId="4" r:id="rId5"/>
+    <x:sheet name="Alignment" sheetId="5" r:id="rId6"/>
+    <x:sheet name="Colors and Lines" sheetId="6" r:id="rId7"/>
+    <x:sheet name="Margins" sheetId="7" r:id="rId8"/>
+    <x:sheet name="Properties" sheetId="8" r:id="rId9"/>
+    <x:sheet name="Protection" sheetId="9" r:id="rId10"/>
+    <x:sheet name="Size" sheetId="10" r:id="rId11"/>
+    <x:sheet name="Web" sheetId="11" r:id="rId12"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
